--- a/xlsx/nor_oda_management_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_management_partners_oneyear.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +410,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andre ikke-statlige organisasjoner</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.09279301700000001</v>
+        <v>0.008547753999999999</v>
       </c>
     </row>
     <row r="3">
@@ -425,11 +425,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multilaterale organisasjoner</t>
+          <t>Andre ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.065000512</v>
+        <v>0.09279301700000001</v>
       </c>
     </row>
     <row r="4">
@@ -440,11 +440,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Norske ikke-statlige organisasjoner</t>
+          <t>Multilaterale organisasjoner</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.029429072</v>
+        <v>0.065000512</v>
       </c>
     </row>
     <row r="5">
@@ -455,11 +455,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Offentlig sektor i Norge/ andre giverland</t>
+          <t>Norske ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C5">
-        <v>4.676906218</v>
+        <v>0.029429072</v>
       </c>
     </row>
     <row r="6">
@@ -470,11 +470,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Offentlig sektor i mottakerland</t>
+          <t>Offentlig sektor i Norge/ andre giverland</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.002077572</v>
+        <v>4.676906218</v>
       </c>
     </row>
     <row r="7">
@@ -485,11 +485,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Privat sektor og annet</t>
+          <t>Offentlig sektor i mottakerland</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.008547753999999999</v>
+        <v>0.002077572</v>
       </c>
     </row>
     <row r="8">
@@ -500,11 +500,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andre ikke-statlige organisasjoner</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.327412935</v>
+        <v>0.08718786000000001</v>
       </c>
     </row>
     <row r="9">
@@ -515,11 +515,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multilaterale organisasjoner</t>
+          <t>Andre ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.161110933</v>
+        <v>0.327412935</v>
       </c>
     </row>
     <row r="10">
@@ -530,11 +530,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Offentlig sektor i Norge/ andre giverland</t>
+          <t>Multilaterale organisasjoner</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.029359364</v>
+        <v>0.161110933</v>
       </c>
     </row>
     <row r="11">
@@ -545,26 +545,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Offentlig-privat samarbeid og nettverk</t>
+          <t>Offentlig sektor i Norge/ andre giverland</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.02067758</v>
+        <v>0.029359364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Klima- og miljødepartementet</t>
+          <t>Norad</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Privat sektor og annet</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.06651028</v>
+        <v>0.522321503</v>
       </c>
     </row>
     <row r="13">
@@ -645,31 +645,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Norad</t>
+          <t>UD - Ambassader</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Offentlig-privat samarbeid og nettverk</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.276937525</v>
+        <v>0.112933264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norad</t>
+          <t>UD - Ambassader</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Privat sektor og annet</t>
+          <t>Andre ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.245383978</v>
+        <v>0.93337964502</v>
       </c>
     </row>
     <row r="20">
@@ -680,11 +680,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Andre ikke-statlige organisasjoner</t>
+          <t>Multilaterale organisasjoner</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.93337964502</v>
+        <v>3.34017216964</v>
       </c>
     </row>
     <row r="21">
@@ -695,11 +695,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multilaterale organisasjoner</t>
+          <t>Norske ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C21">
-        <v>3.34017216964</v>
+        <v>0.67176958659</v>
       </c>
     </row>
     <row r="22">
@@ -710,11 +710,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Norske ikke-statlige organisasjoner</t>
+          <t>Offentlig sektor i Norge/ andre giverland</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.67176958659</v>
+        <v>0.188258721</v>
       </c>
     </row>
     <row r="23">
@@ -725,56 +725,56 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Offentlig sektor i Norge/ andre giverland</t>
+          <t>Offentlig sektor i mottakerland</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.188258721</v>
+        <v>1.1948701096</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UD - Ambassader</t>
+          <t>UD - Oslo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Offentlig sektor i mottakerland</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="C24">
-        <v>1.1948701096</v>
+        <v>0.053116828</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UD - Ambassader</t>
+          <t>UD - Oslo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Offentlig-privat samarbeid og nettverk</t>
+          <t>Andre ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.057690139</v>
+        <v>0.766927745</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UD - Ambassader</t>
+          <t>UD - Oslo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Privat sektor og annet</t>
+          <t>Multilaterale organisasjoner</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.055243125</v>
+        <v>9.890306303799999</v>
       </c>
     </row>
     <row r="27">
@@ -785,11 +785,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Andre ikke-statlige organisasjoner</t>
+          <t>Norske ikke-statlige organisasjoner</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.766927745</v>
+        <v>4.416935935</v>
       </c>
     </row>
     <row r="28">
@@ -800,11 +800,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Multilaterale organisasjoner</t>
+          <t>Offentlig sektor i Norge/ andre giverland</t>
         </is>
       </c>
       <c r="C28">
-        <v>9.890306303799999</v>
+        <v>5.4553463585</v>
       </c>
     </row>
     <row r="29">
@@ -815,71 +815,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Norske ikke-statlige organisasjoner</t>
+          <t>Offentlig sektor i mottakerland</t>
         </is>
       </c>
       <c r="C29">
-        <v>4.416935935</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>UD - Oslo</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Offentlig sektor i Norge/ andre giverland</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>5.4553463585</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>UD - Oslo</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Offentlig sektor i mottakerland</t>
-        </is>
-      </c>
-      <c r="C31">
         <v>-8.62129E-05</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>UD - Oslo</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Offentlig-privat samarbeid og nettverk</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>0.002992894</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>UD - Oslo</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Privat sektor og annet</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>0.050123934</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_management_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_management_partners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Forvaltning av bistanden og partnergruppe, 2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Forvaltning av bistanden og partnergruppe, 2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.008547753999999999</v>
+        <v>0.007309976</v>
       </c>
     </row>
     <row r="3">
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.09279301700000001</v>
+        <v>0.08707563</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.065000512</v>
+        <v>0.06677859799999999</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.029429072</v>
+        <v>0.038901935</v>
       </c>
     </row>
     <row r="6">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4.676906218</v>
+        <v>4.187822538</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.002077572</v>
+        <v>0.004916394</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.08718786000000001</v>
+        <v>0.052340333</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.327412935</v>
+        <v>0.6536839760000001</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.161110933</v>
+        <v>0.09167552299999999</v>
       </c>
     </row>
     <row r="11">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.029359364</v>
+        <v>0.030181233</v>
       </c>
     </row>
     <row r="12">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.522321503</v>
+        <v>1.311095269</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.8765064929</v>
+        <v>2.02846162644</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>18.2898465598</v>
+        <v>19.89778943384</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4.05535608093</v>
+        <v>4.43084107572</v>
       </c>
     </row>
     <row r="16">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.2991228825</v>
+        <v>1.376092809</v>
       </c>
     </row>
     <row r="17">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.0369156213</v>
+        <v>0.0582158461</v>
       </c>
     </row>
     <row r="18">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.112933264</v>
+        <v>0.154166699</v>
       </c>
     </row>
     <row r="19">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.93337964502</v>
+        <v>0.8366005734700001</v>
       </c>
     </row>
     <row r="20">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>3.34017216964</v>
+        <v>2.83717202327</v>
       </c>
     </row>
     <row r="21">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.67176958659</v>
+        <v>0.4906000927</v>
       </c>
     </row>
     <row r="22">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.188258721</v>
+        <v>0.0376031887</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.1948701096</v>
+        <v>2.2289604924</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.053116828</v>
+        <v>0.04453149795</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.766927745</v>
+        <v>0.51866618159</v>
       </c>
     </row>
     <row r="26">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>9.890306303799999</v>
+        <v>6.17997890403</v>
       </c>
     </row>
     <row r="27">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>4.416935935</v>
+        <v>2.19417296301</v>
       </c>
     </row>
     <row r="28">
@@ -804,22 +804,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>5.4553463585</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>UD - Oslo</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Offentlig sektor i mottakerland</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>-8.62129E-05</v>
+        <v>5.84020719544</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_management_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_management_partners_oneyear.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.311095269</v>
+        <v>0.814831698</v>
       </c>
     </row>
     <row r="13">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4.43084107572</v>
+        <v>4.92710464672</v>
       </c>
     </row>
     <row r="16">

--- a/xlsx/nor_oda_management_partners_oneyear.xlsx
+++ b/xlsx/nor_oda_management_partners_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Forvaltning av bistanden og partnergruppe, 2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om forvaltning av norsk bistand og fordeling på partnergrupper. 2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
